--- a/Excel/ports.xlsx
+++ b/Excel/ports.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\BD6\projet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07B42E7-65CA-4B2E-ABB9-BF86F69BC4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{E301DDC9-7111-4F6E-9AAB-1E5BF36E8C31}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>port_name</t>
   </si>
@@ -43,16 +37,19 @@
     <t>port_country_name</t>
   </si>
   <si>
-    <t>location</t>
+    <t>category</t>
   </si>
   <si>
-    <t>category</t>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,23 +387,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C65D06-D066-48A6-AC36-0B79A6C176CE}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,34 +411,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
         <v>5</v>
       </c>
     </row>

--- a/Excel/ports.xlsx
+++ b/Excel/ports.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="52">
   <si>
     <t>port_name</t>
   </si>
@@ -44,6 +44,147 @@
   </si>
   <si>
     <t>latitude</t>
+  </si>
+  <si>
+    <t>Empire moghol</t>
+  </si>
+  <si>
+    <t>Dynastie Qing</t>
+  </si>
+  <si>
+    <t>Saint-Empire romain germanique</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t>Empire ottoman</t>
+  </si>
+  <si>
+    <t>Empire espagnol</t>
+  </si>
+  <si>
+    <t>Royaume de France</t>
+  </si>
+  <si>
+    <t>Tsarat de Russie</t>
+  </si>
+  <si>
+    <t>Dynastie Joseon</t>
+  </si>
+  <si>
+    <t>Perse</t>
+  </si>
+  <si>
+    <t>Monarchie de Habsbourg</t>
+  </si>
+  <si>
+    <t>Angleterre</t>
+  </si>
+  <si>
+    <t>République des Deux Nations</t>
+  </si>
+  <si>
+    <t>Dai Viet</t>
+  </si>
+  <si>
+    <t>Empire chérifien</t>
+  </si>
+  <si>
+    <t>Népal</t>
+  </si>
+  <si>
+    <t>Suède</t>
+  </si>
+  <si>
+    <t>Siam</t>
+  </si>
+  <si>
+    <t>Royaume de Portugal</t>
+  </si>
+  <si>
+    <t>République de Venise</t>
+  </si>
+  <si>
+    <t>Province-Unies</t>
+  </si>
+  <si>
+    <t>Cambodge</t>
+  </si>
+  <si>
+    <t>Brandebourg-Prusse</t>
+  </si>
+  <si>
+    <t>Etats de Savoie</t>
+  </si>
+  <si>
+    <t>Danemark-Norvège</t>
+  </si>
+  <si>
+    <t>Confédération Suisse</t>
+  </si>
+  <si>
+    <t>Khanat dzoungar</t>
+  </si>
+  <si>
+    <t>Grand-duché de Toscane</t>
+  </si>
+  <si>
+    <t>Royaume du Kongo</t>
+  </si>
+  <si>
+    <t>Lan Xang</t>
+  </si>
+  <si>
+    <t>Royaume de Ryukyu</t>
+  </si>
+  <si>
+    <t>Ordre de Saint-Jean de Jérusalem</t>
+  </si>
+  <si>
+    <t>port1</t>
+  </si>
+  <si>
+    <t>port2</t>
+  </si>
+  <si>
+    <t>port3</t>
+  </si>
+  <si>
+    <t>port4</t>
+  </si>
+  <si>
+    <t>port5</t>
+  </si>
+  <si>
+    <t>-1.234</t>
+  </si>
+  <si>
+    <t>-2.345</t>
+  </si>
+  <si>
+    <t>-3,456</t>
+  </si>
+  <si>
+    <t>-4,567</t>
+  </si>
+  <si>
+    <t>-5,678</t>
+  </si>
+  <si>
+    <t>1.234</t>
+  </si>
+  <si>
+    <t>2.345</t>
+  </si>
+  <si>
+    <t>3.456</t>
+  </si>
+  <si>
+    <t>4.567</t>
+  </si>
+  <si>
+    <t>5.678</t>
   </si>
 </sst>
 </file>
@@ -79,8 +220,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157:D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,28 +562,2723 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
       <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
       <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" t="s">
+        <v>50</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" t="s">
+        <v>48</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" t="s">
+        <v>49</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" t="s">
+        <v>51</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" t="s">
+        <v>50</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" t="s">
+        <v>50</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D102" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" t="s">
+        <v>48</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104" t="s">
+        <v>49</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" t="s">
+        <v>50</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" t="s">
+        <v>51</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" t="s">
+        <v>50</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" t="s">
+        <v>51</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" t="s">
+        <v>47</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>38</v>
+      </c>
+      <c r="B113" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D114" t="s">
+        <v>49</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D115" t="s">
+        <v>50</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D116" t="s">
+        <v>51</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D117" t="s">
+        <v>47</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D119" t="s">
+        <v>49</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
+        <v>50</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D121" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D122" t="s">
+        <v>47</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D124" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" t="s">
+        <v>50</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>41</v>
+      </c>
+      <c r="B126" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D126" t="s">
+        <v>51</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>37</v>
+      </c>
+      <c r="B127" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D127" t="s">
+        <v>47</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>38</v>
+      </c>
+      <c r="B128" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>39</v>
+      </c>
+      <c r="B129" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" t="s">
+        <v>49</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D131" t="s">
+        <v>51</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D132" t="s">
+        <v>47</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>38</v>
+      </c>
+      <c r="B133" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" t="s">
+        <v>48</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D134" t="s">
+        <v>49</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>40</v>
+      </c>
+      <c r="B135" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135" t="s">
+        <v>50</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>41</v>
+      </c>
+      <c r="B136" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" t="s">
+        <v>51</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D137" t="s">
+        <v>47</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D138" t="s">
+        <v>48</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D139" t="s">
+        <v>49</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>40</v>
+      </c>
+      <c r="B140" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" t="s">
+        <v>50</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>41</v>
+      </c>
+      <c r="B141" t="s">
+        <v>32</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D141" t="s">
+        <v>51</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142" t="s">
+        <v>47</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>38</v>
+      </c>
+      <c r="B143" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D143" t="s">
+        <v>48</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D144" t="s">
+        <v>49</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>40</v>
+      </c>
+      <c r="B145" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" t="s">
+        <v>50</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>41</v>
+      </c>
+      <c r="B146" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D146" t="s">
+        <v>51</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" t="s">
+        <v>47</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>38</v>
+      </c>
+      <c r="B148" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" t="s">
+        <v>48</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>39</v>
+      </c>
+      <c r="B149" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D149" t="s">
+        <v>49</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>40</v>
+      </c>
+      <c r="B150" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D150" t="s">
+        <v>50</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>41</v>
+      </c>
+      <c r="B151" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D151" t="s">
+        <v>51</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D152" t="s">
+        <v>47</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>38</v>
+      </c>
+      <c r="B153" t="s">
+        <v>35</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D153" t="s">
+        <v>48</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154" t="s">
+        <v>35</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D154" t="s">
+        <v>49</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>40</v>
+      </c>
+      <c r="B155" t="s">
+        <v>35</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D155" t="s">
+        <v>50</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>41</v>
+      </c>
+      <c r="B156" t="s">
+        <v>35</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D156" t="s">
+        <v>51</v>
+      </c>
+      <c r="E156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>37</v>
+      </c>
+      <c r="B157" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" t="s">
+        <v>47</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>38</v>
+      </c>
+      <c r="B158" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D158" t="s">
+        <v>48</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D159" t="s">
+        <v>49</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D160" t="s">
+        <v>50</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>41</v>
+      </c>
+      <c r="B161" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D161" t="s">
+        <v>51</v>
+      </c>
+      <c r="E161">
         <v>5</v>
       </c>
     </row>

--- a/Excel/ports.xlsx
+++ b/Excel/ports.xlsx
@@ -82,30 +82,15 @@
     <t>Angleterre</t>
   </si>
   <si>
-    <t>République des Deux Nations</t>
-  </si>
-  <si>
     <t>Dai Viet</t>
   </si>
   <si>
-    <t>Empire chérifien</t>
-  </si>
-  <si>
-    <t>Népal</t>
-  </si>
-  <si>
-    <t>Suède</t>
-  </si>
-  <si>
     <t>Siam</t>
   </si>
   <si>
     <t>Royaume de Portugal</t>
   </si>
   <si>
-    <t>République de Venise</t>
-  </si>
-  <si>
     <t>Province-Unies</t>
   </si>
   <si>
@@ -118,18 +103,9 @@
     <t>Etats de Savoie</t>
   </si>
   <si>
-    <t>Danemark-Norvège</t>
-  </si>
-  <si>
-    <t>Confédération Suisse</t>
-  </si>
-  <si>
     <t>Khanat dzoungar</t>
   </si>
   <si>
-    <t>Grand-duché de Toscane</t>
-  </si>
-  <si>
     <t>Royaume du Kongo</t>
   </si>
   <si>
@@ -139,9 +115,6 @@
     <t>Royaume de Ryukyu</t>
   </si>
   <si>
-    <t>Ordre de Saint-Jean de Jérusalem</t>
-  </si>
-  <si>
     <t>port1</t>
   </si>
   <si>
@@ -185,6 +158,33 @@
   </si>
   <si>
     <t>5.678</t>
+  </si>
+  <si>
+    <t>Ordre de Saint-Jean de Jerusalem</t>
+  </si>
+  <si>
+    <t>Grand-duche de Toscane</t>
+  </si>
+  <si>
+    <t>Confederation Suisse</t>
+  </si>
+  <si>
+    <t>Danemark-Norvege</t>
+  </si>
+  <si>
+    <t>Republique de Venise</t>
+  </si>
+  <si>
+    <t>Suede</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Empire cherifien</t>
+  </si>
+  <si>
+    <t>Republique des Deux Nations</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157:D161"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,16 +564,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -581,16 +581,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -598,16 +598,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -615,16 +615,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -632,16 +632,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -649,16 +649,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -666,16 +666,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -683,16 +683,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -700,16 +700,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -717,16 +717,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -734,16 +734,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -751,16 +751,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -768,16 +768,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -785,16 +785,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -802,16 +802,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -819,16 +819,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -836,16 +836,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -853,16 +853,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -870,16 +870,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -887,16 +887,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -904,16 +904,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -938,16 +938,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -955,16 +955,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -972,16 +972,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1006,16 +1006,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1023,16 +1023,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1040,16 +1040,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -1057,16 +1057,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -1074,16 +1074,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1108,16 +1108,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1125,16 +1125,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -1159,16 +1159,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1176,16 +1176,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1193,16 +1193,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -1227,16 +1227,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -1244,16 +1244,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1261,16 +1261,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1278,16 +1278,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -1295,16 +1295,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -1312,16 +1312,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -1329,16 +1329,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1346,16 +1346,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1363,16 +1363,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -1380,16 +1380,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E50">
         <v>4</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1431,16 +1431,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -1448,16 +1448,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -1465,16 +1465,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E55">
         <v>4</v>
@@ -1482,16 +1482,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E56">
         <v>5</v>
@@ -1499,16 +1499,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1516,16 +1516,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -1533,16 +1533,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -1550,16 +1550,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E60">
         <v>4</v>
@@ -1567,16 +1567,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -1584,16 +1584,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1601,16 +1601,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -1618,16 +1618,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D64" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -1635,16 +1635,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E65">
         <v>4</v>
@@ -1652,16 +1652,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D66" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E66">
         <v>5</v>
@@ -1669,16 +1669,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -1686,16 +1686,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -1703,16 +1703,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -1720,16 +1720,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E71">
         <v>5</v>
@@ -1754,16 +1754,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -1771,16 +1771,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -1788,16 +1788,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -1805,16 +1805,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -1822,16 +1822,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E76">
         <v>5</v>
@@ -1839,16 +1839,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -1856,16 +1856,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -1873,16 +1873,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -1890,16 +1890,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -1907,16 +1907,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -1924,16 +1924,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -1941,16 +1941,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -1958,16 +1958,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D84" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -1975,16 +1975,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D85" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -2009,16 +2009,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D88" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -2043,16 +2043,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D89" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -2060,16 +2060,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D90" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D91" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -2094,16 +2094,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -2111,16 +2111,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -2128,16 +2128,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D94" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -2145,16 +2145,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E95">
         <v>4</v>
@@ -2162,16 +2162,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E96">
         <v>5</v>
@@ -2179,16 +2179,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -2196,16 +2196,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D98" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -2213,16 +2213,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E99">
         <v>3</v>
@@ -2230,16 +2230,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D100" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -2247,16 +2247,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E101">
         <v>5</v>
@@ -2264,16 +2264,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2281,16 +2281,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -2298,16 +2298,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D104" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E104">
         <v>3</v>
@@ -2315,16 +2315,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D105" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -2332,16 +2332,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D106" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -2349,16 +2349,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D107" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -2366,16 +2366,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D108" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D109" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E109">
         <v>3</v>
@@ -2400,16 +2400,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B110" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D110" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D111" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -2434,16 +2434,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D112" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -2451,16 +2451,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -2468,16 +2468,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D114" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E114">
         <v>3</v>
@@ -2485,16 +2485,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D115" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E115">
         <v>4</v>
@@ -2502,16 +2502,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D116" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -2519,16 +2519,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -2536,16 +2536,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D118" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -2553,16 +2553,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -2570,16 +2570,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D120" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -2587,16 +2587,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D121" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -2604,16 +2604,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D122" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -2621,16 +2621,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D123" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -2638,16 +2638,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D124" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E124">
         <v>3</v>
@@ -2655,16 +2655,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D125" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E125">
         <v>4</v>
@@ -2672,16 +2672,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -2689,16 +2689,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D127" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -2706,16 +2706,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B128" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D128" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -2723,16 +2723,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B129" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D129" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E129">
         <v>3</v>
@@ -2740,16 +2740,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B130" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D130" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E130">
         <v>4</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E131">
         <v>5</v>
@@ -2774,16 +2774,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D132" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -2791,16 +2791,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D133" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -2808,16 +2808,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D134" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E134">
         <v>3</v>
@@ -2825,16 +2825,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D135" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E135">
         <v>4</v>
@@ -2842,16 +2842,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E136">
         <v>5</v>
@@ -2859,16 +2859,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D137" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -2876,16 +2876,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D138" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E138">
         <v>2</v>
@@ -2893,16 +2893,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D139" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E139">
         <v>3</v>
@@ -2910,16 +2910,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D140" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E140">
         <v>4</v>
@@ -2927,16 +2927,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B141" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -2944,16 +2944,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D142" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -2961,16 +2961,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B143" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D143" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E143">
         <v>2</v>
@@ -2978,16 +2978,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D144" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E144">
         <v>3</v>
@@ -2995,16 +2995,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D145" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E145">
         <v>4</v>
@@ -3012,16 +3012,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B146" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E146">
         <v>5</v>
@@ -3029,16 +3029,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B147" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D147" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -3046,16 +3046,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D148" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E148">
         <v>2</v>
@@ -3063,16 +3063,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D149" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E149">
         <v>3</v>
@@ -3080,16 +3080,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D150" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E150">
         <v>4</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D151" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E151">
         <v>5</v>
@@ -3114,16 +3114,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B152" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D152" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -3131,16 +3131,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D153" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -3148,16 +3148,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B154" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D154" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E154">
         <v>3</v>
@@ -3165,16 +3165,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D155" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E155">
         <v>4</v>
@@ -3182,16 +3182,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B156" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D156" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E156">
         <v>5</v>
@@ -3199,16 +3199,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D157" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -3216,16 +3216,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D158" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -3233,16 +3233,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B159" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D159" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E159">
         <v>3</v>
@@ -3250,16 +3250,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B160" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D160" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E160">
         <v>4</v>
@@ -3267,16 +3267,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D161" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E161">
         <v>5</v>

--- a/Excel/ports.xlsx
+++ b/Excel/ports.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E12321-936F-447D-8CC8-64CD1FBB7D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,16 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -136,15 +132,6 @@
     <t>-2.345</t>
   </si>
   <si>
-    <t>-3,456</t>
-  </si>
-  <si>
-    <t>-4,567</t>
-  </si>
-  <si>
-    <t>-5,678</t>
-  </si>
-  <si>
     <t>1.234</t>
   </si>
   <si>
@@ -185,12 +172,21 @@
   </si>
   <si>
     <t>Republique des Deux Nations</t>
+  </si>
+  <si>
+    <t>-3.456</t>
+  </si>
+  <si>
+    <t>-4.567</t>
+  </si>
+  <si>
+    <t>-5.678</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,23 +525,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -573,13 +569,13 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -590,13 +586,13 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -604,16 +600,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -621,16 +617,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -638,16 +634,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -658,13 +654,13 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -675,13 +671,13 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -689,16 +685,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -706,16 +702,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -723,16 +719,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -743,13 +739,13 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -760,13 +756,13 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -774,16 +770,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -791,16 +787,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -808,16 +804,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -828,13 +824,13 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -845,13 +841,13 @@
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -859,16 +855,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -876,16 +872,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -893,16 +889,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -913,13 +909,13 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -930,13 +926,13 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -944,16 +940,16 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -961,16 +957,16 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -978,16 +974,16 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -998,13 +994,13 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1015,13 +1011,13 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1029,16 +1025,16 @@
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1046,16 +1042,16 @@
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1063,16 +1059,16 @@
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1083,13 +1079,13 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1100,13 +1096,13 @@
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1114,16 +1110,16 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1131,16 +1127,16 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1148,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1168,13 +1164,13 @@
         <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1185,13 +1181,13 @@
         <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1199,16 +1195,16 @@
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1216,16 +1212,16 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1233,16 +1229,16 @@
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1253,13 +1249,13 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1270,13 +1266,13 @@
         <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -1284,16 +1280,16 @@
         <v>13</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -1301,16 +1297,16 @@
         <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -1318,16 +1314,16 @@
         <v>13</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E46">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -1338,13 +1334,13 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -1355,13 +1351,13 @@
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -1369,16 +1365,16 @@
         <v>14</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -1386,16 +1382,16 @@
         <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -1403,16 +1399,16 @@
         <v>14</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -1423,13 +1419,13 @@
         <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -1440,13 +1436,13 @@
         <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1454,16 +1450,16 @@
         <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -1471,16 +1467,16 @@
         <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -1488,16 +1484,16 @@
         <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -1508,13 +1504,13 @@
         <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>29</v>
       </c>
@@ -1525,13 +1521,13 @@
         <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -1539,16 +1535,16 @@
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E59">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -1556,16 +1552,16 @@
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E60">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -1573,101 +1569,101 @@
         <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E61">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E64">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>32</v>
       </c>
       <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E66">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -1678,13 +1674,13 @@
         <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>29</v>
       </c>
@@ -1695,13 +1691,13 @@
         <v>34</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -1709,16 +1705,16 @@
         <v>17</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E69">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -1726,16 +1722,16 @@
         <v>17</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E70">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -1743,271 +1739,271 @@
         <v>17</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E71">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E74">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>31</v>
       </c>
       <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E75">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E76">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
       <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E79">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E80">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E81">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E85">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E86">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -2018,13 +2014,13 @@
         <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -2035,13 +2031,13 @@
         <v>34</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -2049,16 +2045,16 @@
         <v>18</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E89">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>31</v>
       </c>
@@ -2066,16 +2062,16 @@
         <v>18</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E90">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -2083,16 +2079,16 @@
         <v>18</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E91">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -2103,13 +2099,13 @@
         <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>29</v>
       </c>
@@ -2120,13 +2116,13 @@
         <v>34</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -2134,16 +2130,16 @@
         <v>19</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D94" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E94">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>31</v>
       </c>
@@ -2151,16 +2147,16 @@
         <v>19</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D95" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E95">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -2168,101 +2164,101 @@
         <v>19</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>28</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D98" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E98">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>30</v>
       </c>
       <c r="B99" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D100" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E100">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E101">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -2273,13 +2269,13 @@
         <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -2290,13 +2286,13 @@
         <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E103">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -2304,16 +2300,16 @@
         <v>20</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D104" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>31</v>
       </c>
@@ -2321,16 +2317,16 @@
         <v>20</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D105" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E105">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -2338,16 +2334,16 @@
         <v>20</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E106">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>28</v>
       </c>
@@ -2358,13 +2354,13 @@
         <v>33</v>
       </c>
       <c r="D107" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>29</v>
       </c>
@@ -2375,13 +2371,13 @@
         <v>34</v>
       </c>
       <c r="D108" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E108">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -2389,16 +2385,16 @@
         <v>21</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D109" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -2406,16 +2402,16 @@
         <v>21</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E110">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>32</v>
       </c>
@@ -2423,16 +2419,16 @@
         <v>21</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D111" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E111">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>28</v>
       </c>
@@ -2443,13 +2439,13 @@
         <v>33</v>
       </c>
       <c r="D112" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>29</v>
       </c>
@@ -2460,13 +2456,13 @@
         <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E113">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>30</v>
       </c>
@@ -2474,16 +2470,16 @@
         <v>22</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D114" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>31</v>
       </c>
@@ -2491,16 +2487,16 @@
         <v>22</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D115" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E115">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>32</v>
       </c>
@@ -2508,16 +2504,16 @@
         <v>22</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D116" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E116">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -2528,13 +2524,13 @@
         <v>33</v>
       </c>
       <c r="D117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>29</v>
       </c>
@@ -2545,13 +2541,13 @@
         <v>34</v>
       </c>
       <c r="D118" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -2559,16 +2555,16 @@
         <v>23</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E119">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -2576,16 +2572,16 @@
         <v>23</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D120" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E120">
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>32</v>
       </c>
@@ -2593,186 +2589,186 @@
         <v>23</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D121" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E121">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D122" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>29</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D123" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D124" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E124">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>31</v>
       </c>
       <c r="B125" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D125" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E125">
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>32</v>
       </c>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D126" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E126">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>29</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D128" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E128">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>30</v>
       </c>
       <c r="B129" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E129">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>31</v>
       </c>
       <c r="B130" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D130" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E130">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D131" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E131">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>28</v>
       </c>
@@ -2783,13 +2779,13 @@
         <v>33</v>
       </c>
       <c r="D132" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>29</v>
       </c>
@@ -2800,13 +2796,13 @@
         <v>34</v>
       </c>
       <c r="D133" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E133">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>30</v>
       </c>
@@ -2814,16 +2810,16 @@
         <v>24</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D134" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -2831,16 +2827,16 @@
         <v>24</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D135" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E135">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -2848,101 +2844,101 @@
         <v>24</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D136" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E136">
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>28</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D137" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D138" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E138">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D139" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E139">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E140">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>32</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D141" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E141">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>28</v>
       </c>
@@ -2953,13 +2949,13 @@
         <v>33</v>
       </c>
       <c r="D142" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>29</v>
       </c>
@@ -2970,13 +2966,13 @@
         <v>34</v>
       </c>
       <c r="D143" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E143">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -2984,16 +2980,16 @@
         <v>25</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D144" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E144">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -3001,16 +2997,16 @@
         <v>25</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D145" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E145">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>32</v>
       </c>
@@ -3018,16 +3014,16 @@
         <v>25</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D146" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E146">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -3038,13 +3034,13 @@
         <v>33</v>
       </c>
       <c r="D147" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>29</v>
       </c>
@@ -3055,13 +3051,13 @@
         <v>34</v>
       </c>
       <c r="D148" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E148">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -3069,16 +3065,16 @@
         <v>26</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D149" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E149">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -3086,16 +3082,16 @@
         <v>26</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D150" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E150">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>32</v>
       </c>
@@ -3103,16 +3099,16 @@
         <v>26</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E151">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>28</v>
       </c>
@@ -3123,13 +3119,13 @@
         <v>33</v>
       </c>
       <c r="D152" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>29</v>
       </c>
@@ -3140,13 +3136,13 @@
         <v>34</v>
       </c>
       <c r="D153" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E153">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -3154,16 +3150,16 @@
         <v>27</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D154" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E154">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -3171,16 +3167,16 @@
         <v>27</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D155" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E155">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>32</v>
       </c>
@@ -3188,95 +3184,95 @@
         <v>27</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D156" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E156">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>28</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D157" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>29</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D158" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E158">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>30</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D159" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E159">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>31</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D160" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E160">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D161" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E161">
         <v>5</v>
